--- a/biology/Botanique/Stahlia_monosperma/Stahlia_monosperma.xlsx
+++ b/biology/Botanique/Stahlia_monosperma/Stahlia_monosperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Stahlia monosperma est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire des Antilles. C'est l'unique espèce acceptée du genre Stahlia (genre monotypique).
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Stahlia » est un hommage à Agustín Stahl (1842-1917), médecin et botaniste de Porto Rico[4].
-L'épithète spécifique « monosperma » est un adjectif de latin botanique signifiant « à une seule graine », en référence aux gousses contenant une graine unique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Stahlia » est un hommage à Agustín Stahl (1842-1917), médecin et botaniste de Porto Rico.
+L'épithète spécifique « monosperma » est un adjectif de latin botanique signifiant « à une seule graine », en référence aux gousses contenant une graine unique.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Caesalpinia monosperma Tul.[2] [5]
-Libidibia monosperma (Tul.) E. Gagnon &amp; G. P. Lewis (préféré par GRIN)[5]
-Stahlia maritima Bello[2] [5]
-Stahlia monosperma (Tul.) Urb.[5]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Caesalpinia monosperma Tul. 
+Libidibia monosperma (Tul.) E. Gagnon &amp; G. P. Lewis (préféré par GRIN)
+Stahlia maritima Bello 
+Stahlia monosperma (Tul.) Urb.</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (16 octobre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (16 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Stahlia monosperma var. domingensis Standl.
 Stahlia monosperma var. monosperma</t>
         </is>
